--- a/Ultimas_Noticias.xlsx
+++ b/Ultimas_Noticias.xlsx
@@ -25,94 +25,94 @@
     <t>Links</t>
   </si>
   <si>
-    <t>Casal de Araraquara perde R$ 3,9 mil ao cair em  golpe na internet</t>
-  </si>
-  <si>
-    <t>Câmera de segurança flagra furto a residência em Sorocaba</t>
-  </si>
-  <si>
-    <t>Assista ao vivo o BDAC</t>
-  </si>
-  <si>
-    <t>Limeira amplia pontos de vacinação contra a Covid-19 a partir desta segunda-feira; veja endereços</t>
-  </si>
-  <si>
-    <t>Boletim Covid: Rondônia registra 1 morte e 79 novos casos no domingo (19)</t>
-  </si>
-  <si>
-    <t>Por que estreia de Kelly Key antecipou pop de divas no Brasil com empoderamento dançante?</t>
-  </si>
-  <si>
-    <t>Marinha leva 20 toneladas de doações para famílias atingidas pela chuva no sul da Bahia</t>
-  </si>
-  <si>
-    <t>Após 10 dias, bombeiros controlam incêndio florestal em Serra Negra do Norte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polícia Militar apreende dispositivo conhecido como ‘chupa-cabra’ em agência da Caixa em Mogi Mirim </t>
-  </si>
-  <si>
-    <t>Motociclista morre após bater em outra moto na zona rural de Afonso Bezerra</t>
-  </si>
-  <si>
-    <t>Vítimas tentavam comprar videogame e TV e transferiram o dinheiro para golpista no domingo (19).</t>
-  </si>
-  <si>
-    <t>Segundo apurado pela TV TEM, os criminosos fugiram levando uma televisão e um micro-ondas. Caso foi registrado no bairro do Éden, por volta das 18h30 de domingo (19).</t>
-  </si>
-  <si>
-    <t>Participe usando #bdac ou pelo (68) 99211-2930</t>
-  </si>
-  <si>
-    <t>Agora, cidade passa a contar com 14 locais para imunização. Já o drive-thru para aplicação de doses foi desativado na última sexta-feira (17).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estado contabiliza 6.697 óbitos e 6.697 casos de coronavírus desde o início da pandemia, segundo boletim. Número de casos ativos não foi divulgado. </t>
-  </si>
-  <si>
-    <t>Ao g1, cantora fala do início da carreira com luta contra assédio, preconceito e machismo: 'Hoje eu entendo que eu marquei uma geração. Minha maturidade me permite me dar esse crédito'.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campanha promovida pela prefeitura de Salvador arrecadou alimentos, roupas e materiais de limpeza. </t>
-  </si>
-  <si>
-    <t>Incêndio foi controlado com a ajuda do helicóptero Potiguar 1 da Secretaria de Segurança Pública do Estado do Rio Grande do Norte (Sesed).</t>
-  </si>
-  <si>
-    <t>Objeto estava na entrada de um dos terminais eletrônicos, impedindo a retirada do cartão. Ninguém foi preso.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segundo informações da Polícia Militar, homem estava sem capacete e sob efeito de álcool. </t>
-  </si>
-  <si>
-    <t>https://g1.globo.com/sp/sao-carlos-regiao/noticia/2021/12/20/casal-de-araraquara-perde-r-39-mil-ao-cair-em-golpe-na-internet.ghtml</t>
-  </si>
-  <si>
-    <t>https://g1.globo.com/sp/sorocaba-jundiai/noticia/2021/12/20/camera-de-seguranca-flagra-furto-a-residencia-em-sorocaba.ghtml</t>
-  </si>
-  <si>
-    <t>https://g1.globo.com/ac/acre/ao-vivo/assista-ao-vivo-o-bdac.ghtml</t>
-  </si>
-  <si>
-    <t>https://g1.globo.com/sp/piracicaba-regiao/noticia/2021/12/20/limeira-amplia-pontos-de-vacinacao-contra-a-covid-19-a-partir-desta-segunda-feira-veja-enderecos.ghtml</t>
-  </si>
-  <si>
-    <t>https://g1.globo.com/ro/rondonia/noticia/2021/12/20/boletim-covid-rondonia-registra-1-morte-e-79-novos-casos-no-domingo-19.ghtml</t>
-  </si>
-  <si>
-    <t>https://g1.globo.com/pop-arte/musica/noticia/2021/12/20/por-que-estreia-de-kelly-key-antecipou-pop-de-divas-no-brasil-com-empoderamento-dancante.ghtml</t>
-  </si>
-  <si>
-    <t>https://g1.globo.com/ba/bahia/noticia/2021/12/20/marinha-leva-20-toneladas-de-doacoes-para-familias-atingidas-pela-chuva-no-sul-da-bahia.ghtml</t>
-  </si>
-  <si>
-    <t>https://g1.globo.com/rn/rio-grande-do-norte/noticia/2021/12/20/apos-10-dias-bombeiros-controlam-incendio-florestal-em-serra-negra-do-norte.ghtml</t>
-  </si>
-  <si>
-    <t>https://g1.globo.com/sp/campinas-regiao/noticia/2021/12/20/policia-militar-apreende-dispositivo-conhecido-como-chupa-cabra-em-agencia-da-caixa-em-mogi-mirim.ghtml</t>
-  </si>
-  <si>
-    <t>https://g1.globo.com/rn/rio-grande-do-norte/noticia/2021/12/20/motociclista-morre-apos-bater-em-outra-moto-na-zona-rural-de-afonso-bezerra.ghtml</t>
+    <t>Idoso morre atropelado na Rodovia Dom Gabriel em Itupeva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coleta seletiva em Foz do Iguaçu é suspensa até 24 de dezembro, diz prefeitura </t>
+  </si>
+  <si>
+    <t>Manaus tem 53 pontos de vacinação contra a Covid-19 na semana do Natal</t>
+  </si>
+  <si>
+    <t>Acidente entre dois carros deixa mortos e feridos na BR-365, em Buritizeiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefeitura de SP retira estátua de 'galinha de ouro' da Avenida Ipiranga, no Centro </t>
+  </si>
+  <si>
+    <t>Polícia Militar flagra assassinato de jovem e prende dois suspeitos do crime em Uberaba</t>
+  </si>
+  <si>
+    <t>Carro fica prensado entre dois caminhões e deixa homem ferido na BR-101, em Biguaçu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justiça anula permissões para veículos alternativos intermunicipal do Piauí, e motoristas fazem protesto </t>
+  </si>
+  <si>
+    <t>Solicitação de matrículas na rede municipal pode ser feita até 7 de janeiro em Caruaru</t>
+  </si>
+  <si>
+    <t>Classificados do Edimilson: veja as vagas de emprego da semana de 20 a 24 de dezembro</t>
+  </si>
+  <si>
+    <t>De acordo com a Polícia Rodoviária, a vítima teria atravessado a estrada em uma região sem iluminação e acabou sendo atingida por um carro.</t>
+  </si>
+  <si>
+    <t>Conforme prefeitura, novos catadores contratados para o programa passarão por treinamento com a Secretaria de Meio Ambiente. Trabalhos serão retomados a partir do dia 27.</t>
+  </si>
+  <si>
+    <t>Imunização contra a doença será realizada até quinta-feira (23).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo as primeiras informações do Samu, dois homens e uma mulher morreram no local. Ocorrência está em andamento e a dinâmica do acidente não foi informada. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estátua foi colocada sem permissão por lanchonete para divulgar novo hambúrguer à base de planta e sugerir ao consumidor a troca da proteína animal pela vegetal. </t>
+  </si>
+  <si>
+    <t>Segundo a PM, homicídio foi motivado pela vingança da morte de um homem, registrada no dia 9 de dezembro, no Bairro Parque das Gameleiras. Suspeitos ofereceram R$ 50 mil aos militares para serem soltos e disseram que 'estava fazendo um favor para a polícia e limpando a cidade'.</t>
+  </si>
+  <si>
+    <t>Acidente ocorreu na manhã desta segunda-feira e causou congestionamento de até 3 quilômetros.</t>
+  </si>
+  <si>
+    <t>Decisão do Tribunal de Justiça que tornou sem efeito o decreto assinado pelo Governo do Piauí que autorizou o retorno das vans às estradas, e determinou que fossem anuladas as autorizações feitas a partir do decreto.</t>
+  </si>
+  <si>
+    <t>Matrícula deve ser feita, de 17 a 21 janeiro, na própria instituição de ensino escolhida.</t>
+  </si>
+  <si>
+    <t>Abriu um empreendimento? Está empregando? Envie para rjtvemprego@g.globo.</t>
+  </si>
+  <si>
+    <t>https://g1.globo.com/sp/sorocaba-jundiai/noticia/2021/12/20/idoso-morre-atropelado-na-rodovia-dom-gabriel-em-itupeva.ghtml</t>
+  </si>
+  <si>
+    <t>https://g1.globo.com/pr/oeste-sudoeste/noticia/2021/12/20/coleta-seletiva-em-foz-do-iguacu-e-suspensa-ate-24-de-dezembro-diz-prefeitura.ghtml</t>
+  </si>
+  <si>
+    <t>https://g1.globo.com/am/amazonas/noticia/2021/12/20/manaus-tem-53-pontos-de-vacinacao-contra-a-covid-19-na-semana-do-natal.ghtml</t>
+  </si>
+  <si>
+    <t>https://g1.globo.com/mg/grande-minas/noticia/2021/12/20/acidente-entre-dois-carros-deixa-mortos-e-feridos-na-br-365-em-buritizeiro.ghtml</t>
+  </si>
+  <si>
+    <t>https://g1.globo.com/sp/sao-paulo/noticia/2021/12/20/prefeitura-de-sp-retira-estatua-de-galinha-de-ouro-da-avenida-ipiranga-no-centro.ghtml</t>
+  </si>
+  <si>
+    <t>https://g1.globo.com/mg/triangulo-mineiro/noticia/2021/12/20/policia-militar-flagra-assassinato-de-jovem-e-prende-dois-suspeitos-do-crime-em-uberaba.ghtml</t>
+  </si>
+  <si>
+    <t>https://g1.globo.com/sc/santa-catarina/noticia/2021/12/20/carro-fica-prensado-entre-dois-caminhoes-e-deixa-homem-ferido-na-br-101-em-biguacu.ghtml</t>
+  </si>
+  <si>
+    <t>https://g1.globo.com/pi/piaui/noticia/2021/12/20/justica-anula-permissoes-para-veiculos-alternativos-intermunicipal-do-piaui-e-motoristas-fazem-protesto.ghtml</t>
+  </si>
+  <si>
+    <t>https://g1.globo.com/pe/caruaru-regiao/noticia/2021/12/20/solicitacao-de-matriculas-na-rede-municipal-pode-ser-feita-ate-7-de-janeiro-em-caruaru.ghtml</t>
+  </si>
+  <si>
+    <t>https://g1.globo.com/rj/rio-de-janeiro/blog/edimilson-avila/post/2021/12/20/classificados-do-edimilson-veja-as-vagas-de-emprego-da-semana-de-20-a-24-de-dezembro.ghtml</t>
   </si>
 </sst>
 </file>
@@ -489,9 +489,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="100.7109375" customWidth="1"/>
-    <col min="3" max="3" width="185.7109375" customWidth="1"/>
-    <col min="4" max="4" width="163.7109375" customWidth="1"/>
+    <col min="2" max="2" width="105.7109375" customWidth="1"/>
+    <col min="3" max="3" width="278.7109375" customWidth="1"/>
+    <col min="4" max="4" width="166.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
